--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H2">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J2">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>58.434756626801</v>
+        <v>1.106217</v>
       </c>
       <c r="N2">
-        <v>58.434756626801</v>
+        <v>3.318651</v>
       </c>
       <c r="O2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q2">
-        <v>2223.811944123048</v>
+        <v>43.108732231236</v>
       </c>
       <c r="R2">
-        <v>2223.811944123048</v>
+        <v>387.978590081124</v>
       </c>
       <c r="S2">
-        <v>0.6848324976559267</v>
+        <v>0.01248768186716034</v>
       </c>
       <c r="T2">
-        <v>0.6848324976559267</v>
+        <v>0.01248768186716034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.0563225123984</v>
+        <v>38.969508</v>
       </c>
       <c r="H3">
-        <v>38.0563225123984</v>
+        <v>116.908524</v>
       </c>
       <c r="I3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J3">
-        <v>0.6901993009273303</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.457933646697285</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N3">
-        <v>0.457933646697285</v>
+        <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q3">
-        <v>17.42727054799058</v>
+        <v>2308.741279111184</v>
       </c>
       <c r="R3">
-        <v>17.42727054799058</v>
+        <v>20778.67151200066</v>
       </c>
       <c r="S3">
-        <v>0.005366803271403593</v>
+        <v>0.6687931914228475</v>
       </c>
       <c r="T3">
-        <v>0.005366803271403593</v>
+        <v>0.6687931914228475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.677459575428619</v>
+        <v>38.969508</v>
       </c>
       <c r="H4">
-        <v>9.677459575428619</v>
+        <v>116.908524</v>
       </c>
       <c r="I4">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="J4">
-        <v>0.1755129080466787</v>
+        <v>0.688733638790647</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.434756626801</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N4">
-        <v>58.434756626801</v>
+        <v>1.980602</v>
       </c>
       <c r="O4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q4">
-        <v>565.4999950558763</v>
+        <v>25.727695161272</v>
       </c>
       <c r="R4">
-        <v>565.4999950558763</v>
+        <v>231.549256451448</v>
       </c>
       <c r="S4">
-        <v>0.1741481670974878</v>
+        <v>0.007452765500639115</v>
       </c>
       <c r="T4">
-        <v>0.1741481670974878</v>
+        <v>0.007452765500639115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.677459575428619</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H5">
-        <v>9.677459575428619</v>
+        <v>29.057191</v>
       </c>
       <c r="I5">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J5">
-        <v>0.1755129080466787</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.457933646697285</v>
+        <v>1.106217</v>
       </c>
       <c r="N5">
-        <v>0.457933646697285</v>
+        <v>3.318651</v>
       </c>
       <c r="O5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q5">
-        <v>4.431634354141587</v>
+        <v>10.714519552149</v>
       </c>
       <c r="R5">
-        <v>4.431634354141587</v>
+        <v>96.43067596934101</v>
       </c>
       <c r="S5">
-        <v>0.001364740949190919</v>
+        <v>0.003103768183415904</v>
       </c>
       <c r="T5">
-        <v>0.001364740949190919</v>
+        <v>0.003103768183415904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.559564399262086</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H6">
-        <v>0.559564399262086</v>
+        <v>29.057191</v>
       </c>
       <c r="I6">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J6">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.434756626801</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N6">
-        <v>58.434756626801</v>
+        <v>177.734444</v>
       </c>
       <c r="O6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q6">
-        <v>32.6980094879021</v>
+        <v>573.8292985096449</v>
       </c>
       <c r="R6">
-        <v>32.6980094879021</v>
+        <v>5164.463686586804</v>
       </c>
       <c r="S6">
-        <v>0.01006949331536558</v>
+        <v>0.1662261299498849</v>
       </c>
       <c r="T6">
-        <v>0.01006949331536558</v>
+        <v>0.1662261299498849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.559564399262086</v>
+        <v>9.685730333333334</v>
       </c>
       <c r="H7">
-        <v>0.559564399262086</v>
+        <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="J7">
-        <v>0.01014840456716986</v>
+        <v>0.1711822560557247</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.457933646697285</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N7">
-        <v>0.457933646697285</v>
+        <v>1.980602</v>
       </c>
       <c r="O7">
-        <v>0.00777572979890435</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P7">
-        <v>0.00777572979890435</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q7">
-        <v>0.2562433659160626</v>
+        <v>6.394525623220223</v>
       </c>
       <c r="R7">
-        <v>0.2562433659160626</v>
+        <v>57.55073060898201</v>
       </c>
       <c r="S7">
-        <v>7.891125180427972E-05</v>
+        <v>0.001852357922423872</v>
       </c>
       <c r="T7">
-        <v>7.891125180427972E-05</v>
+        <v>0.001852357922423872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.395774929194067</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H8">
-        <v>0.395774929194067</v>
+        <v>1.82029</v>
       </c>
       <c r="I8">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J8">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>58.434756626801</v>
+        <v>1.106217</v>
       </c>
       <c r="N8">
-        <v>58.434756626801</v>
+        <v>3.318651</v>
       </c>
       <c r="O8">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P8">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q8">
-        <v>23.1270116664447</v>
+        <v>0.6712119143099999</v>
       </c>
       <c r="R8">
-        <v>23.1270116664447</v>
+        <v>6.04090722879</v>
       </c>
       <c r="S8">
-        <v>0.007122063178365913</v>
+        <v>0.0001944358003012107</v>
       </c>
       <c r="T8">
-        <v>0.007122063178365913</v>
+        <v>0.0001944358003012107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.395774929194067</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H9">
-        <v>0.395774929194067</v>
+        <v>1.82029</v>
       </c>
       <c r="I9">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J9">
-        <v>0.007177876405827559</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.457933646697285</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N9">
-        <v>0.457933646697285</v>
+        <v>177.734444</v>
       </c>
       <c r="O9">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P9">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q9">
-        <v>0.1812386565971988</v>
+        <v>35.94758122986222</v>
       </c>
       <c r="R9">
-        <v>0.1812386565971988</v>
+        <v>323.52823106876</v>
       </c>
       <c r="S9">
-        <v>5.58132274616458E-05</v>
+        <v>0.01041324889547913</v>
       </c>
       <c r="T9">
-        <v>5.58132274616458E-05</v>
+        <v>0.01041324889547913</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.44904296792746</v>
+        <v>0.6067633333333333</v>
       </c>
       <c r="H10">
-        <v>6.44904296792746</v>
+        <v>1.82029</v>
       </c>
       <c r="I10">
-        <v>0.1169615100529935</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="J10">
-        <v>0.1169615100529935</v>
+        <v>0.01072372580252768</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.434756626801</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N10">
-        <v>58.434756626801</v>
+        <v>1.980602</v>
       </c>
       <c r="O10">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P10">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q10">
-        <v>376.8482563066235</v>
+        <v>0.4005855571755556</v>
       </c>
       <c r="R10">
-        <v>376.8482563066235</v>
+        <v>3.60527001458</v>
       </c>
       <c r="S10">
-        <v>0.1160520489539496</v>
+        <v>0.0001160411067473436</v>
       </c>
       <c r="T10">
-        <v>0.1160520489539496</v>
+        <v>0.0001160411067473436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.436248</v>
+      </c>
+      <c r="I11">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J11">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.106217</v>
+      </c>
+      <c r="N11">
+        <v>3.318651</v>
+      </c>
+      <c r="O11">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P11">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q11">
+        <v>0.529600651272</v>
+      </c>
+      <c r="R11">
+        <v>4.766405861448</v>
+      </c>
+      <c r="S11">
+        <v>0.0001534140325503151</v>
+      </c>
+      <c r="T11">
+        <v>0.0001534140325503152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.436248</v>
+      </c>
+      <c r="I12">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J12">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N12">
+        <v>177.734444</v>
+      </c>
+      <c r="O12">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P12">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q12">
+        <v>28.36341552512355</v>
+      </c>
+      <c r="R12">
+        <v>255.270739726112</v>
+      </c>
+      <c r="S12">
+        <v>0.008216277570955235</v>
+      </c>
+      <c r="T12">
+        <v>0.008216277570955237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.44904296792746</v>
-      </c>
-      <c r="H11">
-        <v>6.44904296792746</v>
-      </c>
-      <c r="I11">
-        <v>0.1169615100529935</v>
-      </c>
-      <c r="J11">
-        <v>0.1169615100529935</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.457933646697285</v>
-      </c>
-      <c r="N11">
-        <v>0.457933646697285</v>
-      </c>
-      <c r="O11">
-        <v>0.00777572979890435</v>
-      </c>
-      <c r="P11">
-        <v>0.00777572979890435</v>
-      </c>
-      <c r="Q11">
-        <v>2.953233764010504</v>
-      </c>
-      <c r="R11">
-        <v>2.953233764010504</v>
-      </c>
-      <c r="S11">
-        <v>0.0009094610990439121</v>
-      </c>
-      <c r="T11">
-        <v>0.0009094610990439121</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4787493333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.436248</v>
+      </c>
+      <c r="I13">
+        <v>0.008461250535040448</v>
+      </c>
+      <c r="J13">
+        <v>0.008461250535040449</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.980602</v>
+      </c>
+      <c r="O13">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P13">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q13">
+        <v>0.3160706290328889</v>
+      </c>
+      <c r="R13">
+        <v>2.844635661296</v>
+      </c>
+      <c r="S13">
+        <v>9.155893153489754E-05</v>
+      </c>
+      <c r="T13">
+        <v>9.155893153489757E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H14">
+        <v>20.521923</v>
+      </c>
+      <c r="I14">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J14">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.106217</v>
+      </c>
+      <c r="N14">
+        <v>3.318651</v>
+      </c>
+      <c r="O14">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P14">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q14">
+        <v>7.567233365096999</v>
+      </c>
+      <c r="R14">
+        <v>68.10510028587299</v>
+      </c>
+      <c r="S14">
+        <v>0.002192066386248796</v>
+      </c>
+      <c r="T14">
+        <v>0.002192066386248796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H15">
+        <v>20.521923</v>
+      </c>
+      <c r="I15">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J15">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N15">
+        <v>177.734444</v>
+      </c>
+      <c r="O15">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P15">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q15">
+        <v>405.2725082462013</v>
+      </c>
+      <c r="R15">
+        <v>3647.452574215812</v>
+      </c>
+      <c r="S15">
+        <v>0.1173988166791323</v>
+      </c>
+      <c r="T15">
+        <v>0.1173988166791323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.840640999999999</v>
+      </c>
+      <c r="H16">
+        <v>20.521923</v>
+      </c>
+      <c r="I16">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="J16">
+        <v>0.1208991288160602</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.980602</v>
+      </c>
+      <c r="O16">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P16">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q16">
+        <v>4.516195748627332</v>
+      </c>
+      <c r="R16">
+        <v>40.645761737646</v>
+      </c>
+      <c r="S16">
+        <v>0.001308245750679158</v>
+      </c>
+      <c r="T16">
+        <v>0.001308245750679158</v>
       </c>
     </row>
   </sheetData>
